--- a/medicine/Enfance/Fondation_Vallée/Fondation_Vallée.xlsx
+++ b/medicine/Enfance/Fondation_Vallée/Fondation_Vallée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fondation_Vall%C3%A9e</t>
+          <t>Fondation_Vallée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation Vallée est une institution de soins en pédopsychiatrie située à Gentilly dans le Val-de-Marne (France), que Roger Misès a profondément réformée à partir des années 1950.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fondation_Vall%C3%A9e</t>
+          <t>Fondation_Vallée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un établissement fondé en 1847 par Hippolyte Vallée, instituteur à Bicêtre, pour soigner les enfants déficients mentaux[1], dont il fait don à sa mort au département de la Seine. 
-En 1890, le Docteur Bourneville engage de profondes réformes[1].
-En 1957, Roger Misès devient Chef de Service de la Fondation Vallée[1].
-En 1993, Pierre Ferrari, psychanalyste et professeur de pédopsychiatrie, y est nommé Chef de service en psychiatrie infantile[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un établissement fondé en 1847 par Hippolyte Vallée, instituteur à Bicêtre, pour soigner les enfants déficients mentaux, dont il fait don à sa mort au département de la Seine. 
+En 1890, le Docteur Bourneville engage de profondes réformes.
+En 1957, Roger Misès devient Chef de Service de la Fondation Vallée.
+En 1993, Pierre Ferrari, psychanalyste et professeur de pédopsychiatrie, y est nommé Chef de service en psychiatrie infantile.
 </t>
         </is>
       </c>
